--- a/테스트케이스 최종.xlsx
+++ b/테스트케이스 최종.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="203">
   <si>
     <t>테스트 케이스 (FINAL)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1129,11 +1129,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1162,32 +1183,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1472,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1488,53 +1488,53 @@
     <col min="7" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="27.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="27.6">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="21" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1"/>
     <row r="5" spans="1:10">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="52.8" customHeight="1" thickBot="1">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="1"/>
@@ -1543,36 +1543,36 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="16">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1598,47 +1598,53 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18" thickBot="1"/>
     <row r="13" spans="1:10">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="70.2" customHeight="1" thickBot="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1"/>
@@ -1647,33 +1653,33 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="16">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1696,10 +1702,10 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1734,67 +1740,67 @@
     </row>
     <row r="21" spans="2:10" ht="18" thickBot="1"/>
     <row r="22" spans="2:10">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:10" ht="90" customHeight="1" thickBot="1">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="26" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="16">
+      <c r="B27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1808,16 +1814,16 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="16">
+      <c r="B28" s="5">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1828,7 +1834,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="16">
+      <c r="B29" s="5">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1848,13 +1854,13 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="16">
+      <c r="B30" s="5">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1867,17 +1873,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="34.799999999999997">
-      <c r="B31" s="16">
+    <row r="31" spans="2:10">
+      <c r="B31" s="5">
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1888,130 +1894,130 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="18" thickBot="1">
-      <c r="B32" s="16"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="2:10" ht="123.6" customHeight="1" thickBot="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="18" thickBot="1"/>
     <row r="37" spans="2:10">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="2:10" ht="126" customHeight="1" thickBot="1">
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="16"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="B40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="18" customFormat="1">
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="2:10" s="7" customFormat="1">
+      <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" s="18" customFormat="1">
-      <c r="B43" s="21" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="2:10" s="7" customFormat="1">
+      <c r="B43" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="16">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2025,16 +2031,16 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="16">
+      <c r="B45" s="5">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2045,16 +2051,16 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="16">
+      <c r="B46" s="5">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2065,16 +2071,16 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="34.799999999999997">
-      <c r="B47" s="16">
+      <c r="B47" s="5">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2085,16 +2091,16 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="16">
+      <c r="B48" s="5">
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -2105,16 +2111,16 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="16">
+      <c r="B49" s="5">
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -2125,13 +2131,13 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="16">
+      <c r="B50" s="5">
         <v>7</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2142,16 +2148,16 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="16">
+      <c r="B51" s="5">
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -2162,16 +2168,16 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="16">
+      <c r="B52" s="5">
         <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2182,16 +2188,16 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="16">
+      <c r="B53" s="5">
         <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -2202,16 +2208,16 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="16">
+      <c r="B54" s="5">
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -2222,16 +2228,16 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="16">
+      <c r="B55" s="5">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -2242,16 +2248,16 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="16">
+      <c r="B56" s="5">
         <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2262,16 +2268,16 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="16">
+      <c r="B57" s="5">
         <v>14</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -2282,13 +2288,13 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="16">
+      <c r="B58" s="5">
         <v>15</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2299,16 +2305,16 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="16">
+      <c r="B59" s="5">
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="4" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2319,133 +2325,157 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="16">
+      <c r="B60" s="5">
         <v>17</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="16">
+      <c r="B61" s="5">
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="16">
+      <c r="B62" s="5">
         <v>18</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="16">
+      <c r="B63" s="5">
         <v>18</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="16"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="15"/>
+      <c r="B64" s="5"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:10" ht="18" thickBot="1">
       <c r="B65" s="1"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="10"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="17"/>
     </row>
     <row r="68" spans="2:10" ht="54" customHeight="1" thickBot="1">
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="13"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:10" s="1" customFormat="1">
-      <c r="B71" s="16">
+      <c r="B71" s="5">
         <v>1</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2454,23 +2484,35 @@
       <c r="E71" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" spans="2:10" s="1" customFormat="1">
-      <c r="B72" s="16">
+      <c r="B72" s="5">
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="2:10" s="1" customFormat="1">
-      <c r="B73" s="16">
+      <c r="B73" s="5">
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2482,9 +2524,15 @@
       <c r="E73" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="16">
+      <c r="B74" s="5">
         <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2496,47 +2544,53 @@
       <c r="E74" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="2:10" s="1" customFormat="1" ht="18" thickBot="1">
-      <c r="B75" s="16"/>
-      <c r="D75" s="17"/>
+      <c r="B75" s="5"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="7"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:10" ht="17.399999999999999" customHeight="1">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="10"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17"/>
     </row>
     <row r="78" spans="2:10" ht="61.2" customHeight="1" thickBot="1">
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="13"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="2:10">
       <c r="C79"/>
@@ -2546,33 +2600,33 @@
       <c r="G79"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="B81" s="16">
+      <c r="B81" s="5">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2586,13 +2640,13 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="B82" s="16">
+      <c r="B82" s="5">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2609,13 +2663,13 @@
       <c r="A83" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="5">
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -2630,41 +2684,41 @@
     </row>
     <row r="84" spans="1:10" ht="18" thickBot="1"/>
     <row r="85" spans="1:10">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="7"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="10"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="13"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
     </row>
     <row r="88" spans="1:10">
       <c r="C88"/>
@@ -2674,33 +2728,33 @@
       <c r="G88"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="B90" s="16">
+      <c r="B90" s="5">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -2714,13 +2768,13 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="B91" s="16">
+      <c r="B91" s="5">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2734,84 +2788,84 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="B92" s="16"/>
+      <c r="B92" s="5"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:10" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:10" s="21" customFormat="1" ht="18" thickBot="1">
+      <c r="A93" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="18" thickBot="1"/>
     <row r="95" spans="1:10">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="7"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="10"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="17"/>
     </row>
     <row r="97" spans="2:10" ht="18" thickBot="1">
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="13"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F99" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="16">
+      <c r="B100" s="5">
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -2825,7 +2879,7 @@
       </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="16">
+      <c r="B101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -2834,9 +2888,15 @@
       <c r="E101" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="F101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="16">
+      <c r="B102" s="5">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -2845,73 +2905,79 @@
       <c r="E102" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="F102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="2:10" ht="18" thickBot="1"/>
     <row r="104" spans="2:10">
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="7"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="10"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="17"/>
     </row>
     <row r="106" spans="2:10" ht="18" thickBot="1">
-      <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="13"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109" s="16">
+      <c r="B109" s="5">
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="4" t="s">
         <v>171</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -2925,84 +2991,90 @@
       </c>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110" s="16"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="2:10" ht="18" thickBot="1">
-      <c r="B111" s="16"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="2:10">
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="14"/>
     </row>
     <row r="113" spans="2:10">
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="10"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="17"/>
     </row>
     <row r="114" spans="2:10" ht="61.8" customHeight="1" thickBot="1">
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="13"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
     </row>
     <row r="116" spans="2:10">
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="16">
+      <c r="B117" s="5">
         <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D117" s="15" t="s">
+      <c r="D117" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="F117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="118" spans="2:10">
-      <c r="B118" s="16">
+      <c r="B118" s="5">
         <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3014,9 +3086,15 @@
       <c r="E118" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="F118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="16">
+      <c r="B119" s="5">
         <v>3</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3028,9 +3106,15 @@
       <c r="E119" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="F119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="16">
+      <c r="B120" s="5">
         <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3042,9 +3126,15 @@
       <c r="E120" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="22">
+      <c r="B121" s="11">
         <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -3056,75 +3146,81 @@
       <c r="E121" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="122" spans="2:10" ht="18" thickBot="1">
-      <c r="B122" s="22"/>
+      <c r="B122" s="11"/>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="7"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="14"/>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="10"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="17"/>
     </row>
     <row r="125" spans="2:10" ht="18" thickBot="1">
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="13"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="G127" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="16">
+      <c r="B128" s="5">
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -3138,7 +3234,7 @@
       </c>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="16">
+      <c r="B129" s="5">
         <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -3156,78 +3252,84 @@
     </row>
     <row r="130" spans="2:10" ht="18" thickBot="1"/>
     <row r="131" spans="2:10">
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="7"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="14"/>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="10"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="17"/>
     </row>
     <row r="133" spans="2:10" ht="18" thickBot="1">
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="13"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="16">
+      <c r="B136" s="5">
         <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D136" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="F136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="16">
+      <c r="B137" s="5">
         <v>2</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3239,9 +3341,15 @@
       <c r="E137" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="F137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="138" spans="2:10">
-      <c r="B138" s="16">
+      <c r="B138" s="5">
         <v>3</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3253,9 +3361,15 @@
       <c r="E138" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="F138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="139" spans="2:10">
-      <c r="B139" s="22">
+      <c r="B139" s="11">
         <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -3264,9 +3378,15 @@
       <c r="E139" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="F139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="140" spans="2:10">
-      <c r="B140" s="22">
+      <c r="B140" s="11">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -3275,9 +3395,15 @@
       <c r="E140" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="F140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="22">
+      <c r="B141" s="11">
         <v>6</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -3286,9 +3412,38 @@
       <c r="E141" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="F141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="F142"/>
+      <c r="G142"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B14:J15"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A93:XFD93"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J39"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J35"/>
+    <mergeCell ref="B67:J68"/>
+    <mergeCell ref="B76:J76"/>
+    <mergeCell ref="B77:J78"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B86:J87"/>
     <mergeCell ref="B123:J123"/>
     <mergeCell ref="B124:J125"/>
     <mergeCell ref="B131:J131"/>
@@ -3299,25 +3454,6 @@
     <mergeCell ref="B105:J106"/>
     <mergeCell ref="B112:J112"/>
     <mergeCell ref="B113:J114"/>
-    <mergeCell ref="B67:J68"/>
-    <mergeCell ref="B76:J76"/>
-    <mergeCell ref="B77:J78"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B86:J87"/>
-    <mergeCell ref="A93:XFD93"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J39"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J24"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J35"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
